--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.3229976553718</v>
+        <v>385.380388819194</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3229999542236328</v>
+        <v>0.3739998340606689</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.22299765533656</v>
+        <v>41.38038881919395</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>113.1100000000353</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.99</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.77190350157426</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>17.19240925504744</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>23.42811290419563</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>22.35722294236248</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>54.60999999999963</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01900000000751</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>34.60300000000281</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>108.5810000000028</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>102.7300000000011</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>102.730000000001</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>108.5810000000028</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>88.01900000000751</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.730000000000786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8.58100000000274</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="4">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6.629</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
